--- a/guangxi_project/config.xlsx
+++ b/guangxi_project/config.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,35 +42,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>file_column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河池宏站工参/L网基础工参数据库_V1.1-河池20220516V1.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>河池宏站工参/HC4G工参-0518.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>file_column</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基站,经度,纬度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_column</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河池宏站工参/L网基础工参数据库_V1.1-河池20220516V1.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SiteID,longitude,latitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eNode Bname,Longitude,Latitude</t>
+    <t>河池宏站工参/河池电信诺基亚域新建站工参(更新至2022年5月17日).xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河池宏站工参/河池京信皮基站工参表2021.10.28.xls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大功率工参表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neName,EUTRACarrierARFCN,PCI,TAC,longitude,latitude,Azimuth,CID,EnbType,NoX2,PLMNID,LTENeighborCellId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Site Name(Chinese),earfcnDL,PCI,tac,longitude,latitude,beamDirection,cellId,EnbType,NoX2,PLMNID,LTENeighborCellId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eNode Bname,下行中心频点,PCI,TAC,Longitude,Latitude,Azimuth,CellID,EnbType,NoX2,PLMNID,LTENeighborCellId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站点名,下行频点,PCI,TAC,经度,纬度,方向角,Cell
+ID,EnbType,NoX2,PLMNID,LTENeighborCellId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网元名称,下行EARFCN,PCI,TAC,经度(当前值),纬度(当前值),方位角A,LocalCell ID,EnbType,NoX2,PLMNID,LTENeighborCellId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网元名称,下行EARFCN,PCI,TAC,经度(当前值),纬度(当前值),方位角B,LocalCell ID,EnbType,NoX2,PLMNID,LTENeighborCellId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网元名称,下行EARFCN,PCI,TAC,经度(当前值),纬度(当前值),方位角C,LocalCell ID,EnbType,NoX2,PLMNID,LTENeighborCellId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,12 +150,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,20 +440,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="56" customWidth="1"/>
-    <col min="3" max="3" width="35.25" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="50.25" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="92.375" customWidth="1"/>
+    <col min="5" max="5" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,41 +463,112 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
